--- a/biology/Médecine/Suzy_Duflo/Suzy_Duflo.xlsx
+++ b/biology/Médecine/Suzy_Duflo/Suzy_Duflo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suzy Duflo, née en Guadeloupe[1], est une médecin otorhinolaryngologiste et chercheuse française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzy Duflo, née en Guadeloupe, est une médecin otorhinolaryngologiste et chercheuse française.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suzy Duflo grandit en Basse-Terre[1] et étudie la médecine à l'université de Montpellier[2].
-Elle est cheffe du service d'oto-rhino-laryngologie du CHU de Pointe-à-Pitre et professeure professeure des universités en septembre 2009, après son départ de l'hôpital de la Timone[2].
-En 2018, elle intervient en tant que présidente de la commission médicale d’établissement (CME) du CHU de Pointe-à-Pitre pour défendre les allégations de surmortalité de l’établissement[3]. Elle doit faire face à une grève générale en 2019[4]. Lors de la pandémie de covid-19, elle assure la mise en place d'une unité de soin pour traiter les patients[5]. Elle teste positive au covid-19 peu de temps après[6]. Elle sera remplacée à la tête de la CME  en janvier 2021[7].
-En mars 2016, elle devient vice-doyenne de l'Université des Antilles[2] puis doyenne en 2023[8]. Dans ce contexte, elle a à cœur de garder le lien entre la faculté et le CHU tout en attirant les étudiants vers une carrière sur l’île[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzy Duflo grandit en Basse-Terre et étudie la médecine à l'université de Montpellier.
+Elle est cheffe du service d'oto-rhino-laryngologie du CHU de Pointe-à-Pitre et professeure professeure des universités en septembre 2009, après son départ de l'hôpital de la Timone.
+En 2018, elle intervient en tant que présidente de la commission médicale d’établissement (CME) du CHU de Pointe-à-Pitre pour défendre les allégations de surmortalité de l’établissement. Elle doit faire face à une grève générale en 2019. Lors de la pandémie de covid-19, elle assure la mise en place d'une unité de soin pour traiter les patients. Elle teste positive au covid-19 peu de temps après. Elle sera remplacée à la tête de la CME  en janvier 2021.
+En mars 2016, elle devient vice-doyenne de l'Université des Antilles puis doyenne en 2023. Dans ce contexte, elle a à cœur de garder le lien entre la faculté et le CHU tout en attirant les étudiants vers une carrière sur l’île.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suzy Duflo est décorée chevalière de la légion d'honneur en 2018[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzy Duflo est décorée chevalière de la légion d'honneur en 2018.
 </t>
         </is>
       </c>
